--- a/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
+++ b/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\PLANEJAMENTO\Gustavo Moraes\01 - Estudos\Work-Paramount\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\PLANEJAMENTO\Gustavo Moraes\01 - Estudos\Work-Paramount\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83943715-6CC4-47CB-ADCD-ED6C45C05B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B11DE6F-99A7-4787-84A1-A32E44DAB5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46F42DF5-A9D7-49AF-BA20-293A78FB7E78}"/>
   </bookViews>
@@ -979,12 +979,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1057,7 +1058,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1077,8 +1078,9 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1256,8 +1258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{32C6F1E6-1D70-4994-98C3-EC9A80334A19}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{1CFDBA2B-A08C-46AA-9F9B-F7ED8870E843}"/>
@@ -1267,6 +1275,7 @@
     <cellStyle name="Vírgula 2 2 2" xfId="17" xr:uid="{F0EBA0FF-2FE7-4FDB-8F1E-491985A09383}"/>
     <cellStyle name="Vírgula 2 3" xfId="10" xr:uid="{2BD088E9-707B-473B-B595-84CD6E211392}"/>
     <cellStyle name="Vírgula 2 4" xfId="14" xr:uid="{65D2538B-870E-443C-8F93-1A5D743B8F7E}"/>
+    <cellStyle name="Vírgula 2 5" xfId="19" xr:uid="{EABEBC4E-9ACE-4DAC-A2B7-A3661FE13FC2}"/>
     <cellStyle name="Vírgula 3" xfId="5" xr:uid="{414D4A6A-C812-4E1F-BAAE-9F830F0AA327}"/>
     <cellStyle name="Vírgula 3 2" xfId="8" xr:uid="{508427C5-AC80-453D-A144-2CF24BB964D0}"/>
     <cellStyle name="Vírgula 3 2 2" xfId="18" xr:uid="{5931373B-77EA-42AD-BC69-4053B876E244}"/>
@@ -1610,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56851730-25A0-448D-A189-DA13E238D33F}">
   <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H470" sqref="H470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2664,7 @@
         <v>280</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="0"/>
+        <f>1000/H26</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="J26" s="21" t="s">
@@ -2971,7 +2980,7 @@
       <c r="G34" s="4">
         <v>70</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="55">
         <v>280</v>
       </c>
       <c r="I34" s="22">
@@ -3011,7 +3020,7 @@
       <c r="G35" s="35">
         <v>85</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="56">
         <v>61.2</v>
       </c>
       <c r="I35" s="22">
@@ -3051,7 +3060,7 @@
       <c r="G36" s="35">
         <v>70</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="56">
         <v>163.80000000000001</v>
       </c>
       <c r="I36" s="22">
@@ -3091,7 +3100,7 @@
       <c r="G37" s="35">
         <v>80</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="56">
         <v>124.68705882352943</v>
       </c>
       <c r="I37" s="22">
@@ -3131,7 +3140,7 @@
       <c r="G38" s="35">
         <v>70</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="56">
         <v>163.80000000000001</v>
       </c>
       <c r="I38" s="22">
@@ -3171,7 +3180,7 @@
       <c r="G39" s="35">
         <v>80</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="56">
         <v>155.85882352941178</v>
       </c>
       <c r="I39" s="22">
@@ -3211,12 +3220,12 @@
       <c r="G40" s="35">
         <v>82.4</v>
       </c>
-      <c r="H40" s="36">
-        <v>117.59657142857144</v>
+      <c r="H40" s="56">
+        <v>82.317599999999999</v>
       </c>
       <c r="I40" s="22">
         <f t="shared" si="0"/>
-        <v>8.5036492803483092</v>
+        <v>12.148070400497586</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>63</v>
@@ -3226,7 +3235,7 @@
       </c>
       <c r="L40" s="46">
         <f>I40 - Planilha2!I40 / Planilha1!I40</f>
-        <v>7.5036492803483092</v>
+        <v>11.448070400497587</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3251,12 +3260,12 @@
       <c r="G41" s="35">
         <v>80</v>
       </c>
-      <c r="H41" s="36">
-        <v>123.42857142857143</v>
+      <c r="H41" s="56">
+        <v>96</v>
       </c>
       <c r="I41" s="22">
         <f t="shared" si="0"/>
-        <v>8.1018518518518512</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="J41" s="18" t="s">
         <v>63</v>
@@ -3266,7 +3275,7 @@
       </c>
       <c r="L41" s="46">
         <f>I41 - Planilha2!I41 / Planilha1!I41</f>
-        <v>7.1018518518518512</v>
+        <v>9.6388888888888875</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">

--- a/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
+++ b/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\PLANEJAMENTO\Gustavo Moraes\01 - Estudos\Work-Paramount\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B11DE6F-99A7-4787-84A1-A32E44DAB5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A4294-A520-47BF-ABF8-43E7C395CF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46F42DF5-A9D7-49AF-BA20-293A78FB7E78}"/>
   </bookViews>
@@ -979,13 +979,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1078,7 +1077,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1258,10 +1257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1619,7 @@
   <dimension ref="A1:L467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H470" sqref="H470"/>
+      <selection activeCell="D20" sqref="D20:D464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2408,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="18">
         <v>19</v>
@@ -2449,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="18">
         <v>20</v>
@@ -2489,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="18">
         <v>21</v>
@@ -2529,7 +2528,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="18">
         <v>22</v>
@@ -4088,8 +4087,8 @@
       <c r="C62" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="42">
-        <v>0</v>
+      <c r="D62" s="38">
+        <v>1</v>
       </c>
       <c r="E62" s="18">
         <v>13</v>
@@ -4128,8 +4127,8 @@
       <c r="C63" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="42">
-        <v>0</v>
+      <c r="D63" s="38">
+        <v>1</v>
       </c>
       <c r="E63" s="18">
         <v>14</v>
@@ -4168,8 +4167,8 @@
       <c r="C64" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="42">
-        <v>0</v>
+      <c r="D64" s="38">
+        <v>1</v>
       </c>
       <c r="E64" s="18">
         <v>15</v>
@@ -4208,8 +4207,8 @@
       <c r="C65" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="42">
-        <v>0</v>
+      <c r="D65" s="38">
+        <v>1</v>
       </c>
       <c r="E65" s="18">
         <v>16</v>
@@ -5128,8 +5127,8 @@
       <c r="C88" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="15">
-        <v>0</v>
+      <c r="D88" s="38">
+        <v>1</v>
       </c>
       <c r="E88" s="18">
         <v>21</v>
@@ -5168,8 +5167,8 @@
       <c r="C89" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="15">
-        <v>0</v>
+      <c r="D89" s="38">
+        <v>1</v>
       </c>
       <c r="E89" s="18">
         <v>22</v>
@@ -5208,8 +5207,8 @@
       <c r="C90" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="15">
-        <v>0</v>
+      <c r="D90" s="38">
+        <v>1</v>
       </c>
       <c r="E90" s="18">
         <v>23</v>
@@ -5248,8 +5247,8 @@
       <c r="C91" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="15">
-        <v>0</v>
+      <c r="D91" s="38">
+        <v>1</v>
       </c>
       <c r="E91" s="18">
         <v>24</v>
@@ -6208,8 +6207,8 @@
       <c r="C115" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D115" s="15">
-        <v>0</v>
+      <c r="D115" s="38">
+        <v>1</v>
       </c>
       <c r="E115" s="18">
         <v>22</v>
@@ -6248,8 +6247,8 @@
       <c r="C116" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D116" s="15">
-        <v>0</v>
+      <c r="D116" s="38">
+        <v>1</v>
       </c>
       <c r="E116" s="18">
         <v>23</v>
@@ -6288,8 +6287,8 @@
       <c r="C117" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D117" s="15">
-        <v>0</v>
+      <c r="D117" s="38">
+        <v>1</v>
       </c>
       <c r="E117" s="18">
         <v>24</v>
@@ -6328,8 +6327,8 @@
       <c r="C118" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="15">
-        <v>0</v>
+      <c r="D118" s="38">
+        <v>1</v>
       </c>
       <c r="E118" s="18">
         <v>25</v>
@@ -7288,8 +7287,8 @@
       <c r="C142" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D142" s="15">
-        <v>0</v>
+      <c r="D142" s="38">
+        <v>1</v>
       </c>
       <c r="E142" s="18">
         <v>22</v>
@@ -7328,8 +7327,8 @@
       <c r="C143" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D143" s="15">
-        <v>0</v>
+      <c r="D143" s="38">
+        <v>1</v>
       </c>
       <c r="E143" s="18">
         <v>23</v>
@@ -7368,8 +7367,8 @@
       <c r="C144" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D144" s="15">
-        <v>0</v>
+      <c r="D144" s="38">
+        <v>1</v>
       </c>
       <c r="E144" s="18">
         <v>24</v>
@@ -7408,8 +7407,8 @@
       <c r="C145" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D145" s="15">
-        <v>0</v>
+      <c r="D145" s="38">
+        <v>1</v>
       </c>
       <c r="E145" s="18">
         <v>25</v>
@@ -7565,8 +7564,8 @@
       <c r="C149" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D149" s="15">
-        <v>0</v>
+      <c r="D149" s="38">
+        <v>1</v>
       </c>
       <c r="E149" s="18">
         <v>2</v>
@@ -7602,8 +7601,8 @@
       <c r="C150" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D150" s="15">
-        <v>0</v>
+      <c r="D150" s="38">
+        <v>1</v>
       </c>
       <c r="E150" s="18">
         <v>3</v>
@@ -7639,8 +7638,8 @@
       <c r="C151" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D151" s="15">
-        <v>0</v>
+      <c r="D151" s="38">
+        <v>1</v>
       </c>
       <c r="E151" s="18">
         <v>4</v>
@@ -7676,8 +7675,8 @@
       <c r="C152" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D152" s="15">
-        <v>0</v>
+      <c r="D152" s="38">
+        <v>1</v>
       </c>
       <c r="E152" s="18">
         <v>5</v>
@@ -8751,8 +8750,8 @@
       <c r="C180" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D180" s="15">
-        <v>0</v>
+      <c r="D180" s="38">
+        <v>1</v>
       </c>
       <c r="E180" s="18">
         <v>14</v>
@@ -8951,8 +8950,8 @@
       <c r="C185" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D185" s="15">
-        <v>0</v>
+      <c r="D185" s="38">
+        <v>1</v>
       </c>
       <c r="E185" s="18">
         <v>19</v>
@@ -8991,8 +8990,8 @@
       <c r="C186" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D186" s="15">
-        <v>0</v>
+      <c r="D186" s="38">
+        <v>1</v>
       </c>
       <c r="E186" s="18">
         <v>20</v>
@@ -9031,8 +9030,8 @@
       <c r="C187" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D187" s="15">
-        <v>0</v>
+      <c r="D187" s="38">
+        <v>1</v>
       </c>
       <c r="E187" s="18">
         <v>21</v>
@@ -9071,8 +9070,8 @@
       <c r="C188" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D188" s="15">
-        <v>0</v>
+      <c r="D188" s="38">
+        <v>1</v>
       </c>
       <c r="E188" s="18">
         <v>22</v>
@@ -9151,8 +9150,8 @@
       <c r="C190" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D190" s="15">
-        <v>0</v>
+      <c r="D190" s="38">
+        <v>1</v>
       </c>
       <c r="E190" s="18">
         <v>24</v>
@@ -10071,8 +10070,8 @@
       <c r="C213" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D213" s="15">
-        <v>0</v>
+      <c r="D213" s="38">
+        <v>1</v>
       </c>
       <c r="E213" s="18">
         <v>23</v>
@@ -10231,8 +10230,8 @@
       <c r="C217" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D217" s="15">
-        <v>0</v>
+      <c r="D217" s="38">
+        <v>1</v>
       </c>
       <c r="E217" s="18">
         <v>27</v>
@@ -10271,8 +10270,8 @@
       <c r="C218" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D218" s="15">
-        <v>0</v>
+      <c r="D218" s="38">
+        <v>1</v>
       </c>
       <c r="E218" s="18">
         <v>28</v>
@@ -10311,8 +10310,8 @@
       <c r="C219" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D219" s="15">
-        <v>0</v>
+      <c r="D219" s="38">
+        <v>1</v>
       </c>
       <c r="E219" s="18">
         <v>29</v>
@@ -10351,8 +10350,8 @@
       <c r="C220" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D220" s="15">
-        <v>0</v>
+      <c r="D220" s="38">
+        <v>1</v>
       </c>
       <c r="E220" s="18">
         <v>30</v>
@@ -10431,8 +10430,8 @@
       <c r="C222" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D222" s="15">
-        <v>0</v>
+      <c r="D222" s="38">
+        <v>1</v>
       </c>
       <c r="E222" s="18">
         <v>32</v>
@@ -11433,8 +11432,8 @@
       <c r="C249" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D249" s="15">
-        <v>0</v>
+      <c r="D249" s="38">
+        <v>1</v>
       </c>
       <c r="E249" s="18">
         <v>14</v>
@@ -11470,8 +11469,8 @@
       <c r="C250" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D250" s="15">
-        <v>0</v>
+      <c r="D250" s="38">
+        <v>1</v>
       </c>
       <c r="E250" s="18">
         <v>15</v>
@@ -11507,8 +11506,8 @@
       <c r="C251" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D251" s="15">
-        <v>0</v>
+      <c r="D251" s="38">
+        <v>1</v>
       </c>
       <c r="E251" s="18">
         <v>16</v>
@@ -11544,8 +11543,8 @@
       <c r="C252" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D252" s="15">
-        <v>0</v>
+      <c r="D252" s="38">
+        <v>1</v>
       </c>
       <c r="E252" s="18">
         <v>17</v>
@@ -12099,8 +12098,8 @@
       <c r="C267" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D267" s="15">
-        <v>0</v>
+      <c r="D267" s="38">
+        <v>1</v>
       </c>
       <c r="E267" s="18">
         <v>13</v>
@@ -12247,8 +12246,8 @@
       <c r="C271" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D271" s="15">
-        <v>0</v>
+      <c r="D271" s="38">
+        <v>1</v>
       </c>
       <c r="E271" s="18">
         <v>17</v>
@@ -12321,8 +12320,8 @@
       <c r="C273" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D273" s="15">
-        <v>0</v>
+      <c r="D273" s="38">
+        <v>1</v>
       </c>
       <c r="E273" s="18">
         <v>19</v>
@@ -12358,8 +12357,8 @@
       <c r="C274" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D274" s="15">
-        <v>0</v>
+      <c r="D274" s="38">
+        <v>1</v>
       </c>
       <c r="E274" s="18">
         <v>20</v>
@@ -12395,8 +12394,8 @@
       <c r="C275" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D275" s="15">
-        <v>0</v>
+      <c r="D275" s="38">
+        <v>1</v>
       </c>
       <c r="E275" s="18">
         <v>21</v>
@@ -12432,8 +12431,8 @@
       <c r="C276" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D276" s="15">
-        <v>0</v>
+      <c r="D276" s="38">
+        <v>1</v>
       </c>
       <c r="E276" s="18">
         <v>22</v>
@@ -12506,8 +12505,8 @@
       <c r="C278" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D278" s="15">
-        <v>0</v>
+      <c r="D278" s="38">
+        <v>1</v>
       </c>
       <c r="E278" s="18">
         <v>24</v>
@@ -13423,8 +13422,8 @@
       <c r="C301" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D301" s="15">
-        <v>0</v>
+      <c r="D301" s="38">
+        <v>1</v>
       </c>
       <c r="E301" s="18">
         <v>23</v>
@@ -13583,8 +13582,8 @@
       <c r="C305" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D305" s="15">
-        <v>0</v>
+      <c r="D305" s="38">
+        <v>1</v>
       </c>
       <c r="E305" s="18">
         <v>27</v>
@@ -13623,8 +13622,8 @@
       <c r="C306" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D306" s="15">
-        <v>0</v>
+      <c r="D306" s="38">
+        <v>1</v>
       </c>
       <c r="E306" s="18">
         <v>28</v>
@@ -13663,8 +13662,8 @@
       <c r="C307" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D307" s="15">
-        <v>0</v>
+      <c r="D307" s="38">
+        <v>1</v>
       </c>
       <c r="E307" s="18">
         <v>29</v>
@@ -13703,8 +13702,8 @@
       <c r="C308" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D308" s="15">
-        <v>0</v>
+      <c r="D308" s="38">
+        <v>1</v>
       </c>
       <c r="E308" s="18">
         <v>30</v>
@@ -13823,8 +13822,8 @@
       <c r="C311" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D311" s="15">
-        <v>0</v>
+      <c r="D311" s="38">
+        <v>1</v>
       </c>
       <c r="E311" s="18">
         <v>33</v>
@@ -13863,8 +13862,8 @@
       <c r="C312" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D312" s="4">
-        <v>0</v>
+      <c r="D312" s="38">
+        <v>1</v>
       </c>
       <c r="E312" s="18">
         <v>1</v>
@@ -14381,8 +14380,8 @@
       <c r="C326" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D326" s="15">
-        <v>0</v>
+      <c r="D326" s="38">
+        <v>1</v>
       </c>
       <c r="E326" s="18">
         <v>15</v>
@@ -14492,8 +14491,8 @@
       <c r="C329" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D329" s="15">
-        <v>0</v>
+      <c r="D329" s="38">
+        <v>1</v>
       </c>
       <c r="E329" s="18">
         <v>18</v>
@@ -14529,8 +14528,8 @@
       <c r="C330" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D330" s="15">
-        <v>0</v>
+      <c r="D330" s="38">
+        <v>1</v>
       </c>
       <c r="E330" s="18">
         <v>19</v>
@@ -14566,8 +14565,8 @@
       <c r="C331" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D331" s="15">
-        <v>0</v>
+      <c r="D331" s="38">
+        <v>1</v>
       </c>
       <c r="E331" s="18">
         <v>20</v>
@@ -14603,8 +14602,8 @@
       <c r="C332" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D332" s="15">
-        <v>0</v>
+      <c r="D332" s="38">
+        <v>1</v>
       </c>
       <c r="E332" s="18">
         <v>21</v>
@@ -14677,8 +14676,8 @@
       <c r="C334" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D334" s="15">
-        <v>0</v>
+      <c r="D334" s="38">
+        <v>1</v>
       </c>
       <c r="E334" s="18">
         <v>23</v>
@@ -14754,8 +14753,8 @@
       <c r="C336" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D336" s="15">
-        <v>0</v>
+      <c r="D336" s="38">
+        <v>1</v>
       </c>
       <c r="E336" s="18">
         <v>2</v>
@@ -14874,8 +14873,8 @@
       <c r="C339" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D339" s="15">
-        <v>0</v>
+      <c r="D339" s="38">
+        <v>1</v>
       </c>
       <c r="E339" s="18">
         <v>5</v>
@@ -14914,8 +14913,8 @@
       <c r="C340" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D340" s="15">
-        <v>0</v>
+      <c r="D340" s="38">
+        <v>1</v>
       </c>
       <c r="E340" s="18">
         <v>6</v>
@@ -14954,8 +14953,8 @@
       <c r="C341" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D341" s="15">
-        <v>0</v>
+      <c r="D341" s="38">
+        <v>1</v>
       </c>
       <c r="E341" s="18">
         <v>7</v>
@@ -14994,8 +14993,8 @@
       <c r="C342" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D342" s="15">
-        <v>0</v>
+      <c r="D342" s="38">
+        <v>1</v>
       </c>
       <c r="E342" s="18">
         <v>8</v>
@@ -15034,8 +15033,8 @@
       <c r="C343" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D343" s="15">
-        <v>0</v>
+      <c r="D343" s="38">
+        <v>1</v>
       </c>
       <c r="E343" s="18">
         <v>9</v>
@@ -15114,8 +15113,8 @@
       <c r="C345" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D345" s="15">
-        <v>0</v>
+      <c r="D345" s="38">
+        <v>1</v>
       </c>
       <c r="E345" s="18">
         <v>11</v>
@@ -15474,8 +15473,8 @@
       <c r="C354" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D354" s="15">
-        <v>0</v>
+      <c r="D354" s="38">
+        <v>1</v>
       </c>
       <c r="E354" s="18">
         <v>9</v>
@@ -15554,8 +15553,8 @@
       <c r="C356" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D356" s="15">
-        <v>0</v>
+      <c r="D356" s="38">
+        <v>1</v>
       </c>
       <c r="E356" s="18">
         <v>11</v>
@@ -15594,8 +15593,8 @@
       <c r="C357" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D357" s="15">
-        <v>0</v>
+      <c r="D357" s="38">
+        <v>1</v>
       </c>
       <c r="E357" s="18">
         <v>12</v>
@@ -15634,8 +15633,8 @@
       <c r="C358" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D358" s="15">
-        <v>0</v>
+      <c r="D358" s="38">
+        <v>1</v>
       </c>
       <c r="E358" s="18">
         <v>13</v>
@@ -15674,8 +15673,8 @@
       <c r="C359" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D359" s="15">
-        <v>0</v>
+      <c r="D359" s="38">
+        <v>1</v>
       </c>
       <c r="E359" s="18">
         <v>14</v>
@@ -16164,8 +16163,8 @@
       <c r="C372" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D372" s="15">
-        <v>0</v>
+      <c r="D372" s="38">
+        <v>1</v>
       </c>
       <c r="E372" s="18">
         <v>11</v>
@@ -16201,8 +16200,8 @@
       <c r="C373" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D373" s="15">
-        <v>0</v>
+      <c r="D373" s="38">
+        <v>1</v>
       </c>
       <c r="E373" s="18">
         <v>12</v>
@@ -16238,8 +16237,8 @@
       <c r="C374" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D374" s="15">
-        <v>0</v>
+      <c r="D374" s="38">
+        <v>1</v>
       </c>
       <c r="E374" s="18">
         <v>13</v>
@@ -16275,8 +16274,8 @@
       <c r="C375" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D375" s="15">
-        <v>0</v>
+      <c r="D375" s="38">
+        <v>1</v>
       </c>
       <c r="E375" s="18">
         <v>14</v>
@@ -16349,8 +16348,8 @@
       <c r="C377" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D377" s="15">
-        <v>0</v>
+      <c r="D377" s="38">
+        <v>1</v>
       </c>
       <c r="E377" s="18">
         <v>16</v>
@@ -17026,8 +17025,8 @@
       <c r="C394" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D394" s="15">
-        <v>0</v>
+      <c r="D394" s="38">
+        <v>1</v>
       </c>
       <c r="E394" s="18">
         <v>17</v>
@@ -17066,8 +17065,8 @@
       <c r="C395" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D395" s="15">
-        <v>0</v>
+      <c r="D395" s="38">
+        <v>1</v>
       </c>
       <c r="E395" s="18">
         <v>18</v>
@@ -17106,8 +17105,8 @@
       <c r="C396" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D396" s="15">
-        <v>0</v>
+      <c r="D396" s="38">
+        <v>1</v>
       </c>
       <c r="E396" s="18">
         <v>19</v>
@@ -17146,8 +17145,8 @@
       <c r="C397" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D397" s="15">
-        <v>0</v>
+      <c r="D397" s="38">
+        <v>1</v>
       </c>
       <c r="E397" s="18">
         <v>20</v>
@@ -17304,8 +17303,8 @@
       <c r="C401" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D401" s="15">
-        <v>0</v>
+      <c r="D401" s="38">
+        <v>1</v>
       </c>
       <c r="E401" s="18">
         <v>2</v>
@@ -17342,8 +17341,8 @@
       <c r="C402" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D402" s="15">
-        <v>0</v>
+      <c r="D402" s="38">
+        <v>1</v>
       </c>
       <c r="E402" s="18">
         <v>3</v>
@@ -17380,8 +17379,8 @@
       <c r="C403" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D403" s="15">
-        <v>0</v>
+      <c r="D403" s="38">
+        <v>1</v>
       </c>
       <c r="E403" s="18">
         <v>4</v>
@@ -17418,8 +17417,8 @@
       <c r="C404" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D404" s="15">
-        <v>0</v>
+      <c r="D404" s="38">
+        <v>1</v>
       </c>
       <c r="E404" s="18">
         <v>5</v>
@@ -18412,8 +18411,8 @@
       <c r="C429" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D429" s="15">
-        <v>0</v>
+      <c r="D429" s="38">
+        <v>1</v>
       </c>
       <c r="E429" s="18">
         <v>23</v>
@@ -18452,8 +18451,8 @@
       <c r="C430" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D430" s="15">
-        <v>0</v>
+      <c r="D430" s="38">
+        <v>1</v>
       </c>
       <c r="E430" s="18">
         <v>24</v>
@@ -18492,8 +18491,8 @@
       <c r="C431" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D431" s="15">
-        <v>0</v>
+      <c r="D431" s="38">
+        <v>1</v>
       </c>
       <c r="E431" s="18">
         <v>25</v>
@@ -18532,8 +18531,8 @@
       <c r="C432" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D432" s="15">
-        <v>0</v>
+      <c r="D432" s="38">
+        <v>1</v>
       </c>
       <c r="E432" s="18">
         <v>26</v>
@@ -18689,8 +18688,8 @@
       <c r="C436" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D436" s="15">
-        <v>0</v>
+      <c r="D436" s="38">
+        <v>1</v>
       </c>
       <c r="E436" s="18">
         <v>2</v>
@@ -18726,8 +18725,8 @@
       <c r="C437" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D437" s="15">
-        <v>0</v>
+      <c r="D437" s="38">
+        <v>1</v>
       </c>
       <c r="E437" s="18">
         <v>3</v>
@@ -18763,8 +18762,8 @@
       <c r="C438" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D438" s="15">
-        <v>0</v>
+      <c r="D438" s="38">
+        <v>1</v>
       </c>
       <c r="E438" s="18">
         <v>4</v>
@@ -18800,8 +18799,8 @@
       <c r="C439" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D439" s="15">
-        <v>0</v>
+      <c r="D439" s="38">
+        <v>1</v>
       </c>
       <c r="E439" s="18">
         <v>5</v>
@@ -19671,8 +19670,8 @@
       <c r="C461" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D461" s="15">
-        <v>0</v>
+      <c r="D461" s="38">
+        <v>1</v>
       </c>
       <c r="E461" s="18">
         <v>20</v>
@@ -19711,8 +19710,8 @@
       <c r="C462" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D462" s="15">
-        <v>0</v>
+      <c r="D462" s="38">
+        <v>1</v>
       </c>
       <c r="E462" s="18">
         <v>21</v>
@@ -19751,8 +19750,8 @@
       <c r="C463" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D463" s="15">
-        <v>0</v>
+      <c r="D463" s="38">
+        <v>1</v>
       </c>
       <c r="E463" s="18">
         <v>22</v>
@@ -19791,8 +19790,8 @@
       <c r="C464" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D464" s="15">
-        <v>0</v>
+      <c r="D464" s="38">
+        <v>1</v>
       </c>
       <c r="E464" s="18">
         <v>23</v>

--- a/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
+++ b/pages/PLANTA_DE_PRODUÇÃO(FIOS_INDUSTRIAIS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\PLANEJAMENTO\Gustavo Moraes\01 - Estudos\Work-Paramount\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CBA90E-2654-4F8E-B2A6-45563E8B9977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41EF347-F8C7-48D7-B04B-8BD54A85E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{46F42DF5-A9D7-49AF-BA20-293A78FB7E78}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$499</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="314">
   <si>
     <t>REVISÃO</t>
   </si>
@@ -995,7 +995,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1028,16 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1088,7 +1098,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1272,6 +1282,31 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,6 +1332,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1625,11 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56851730-25A0-448D-A189-DA13E238D33F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M467"/>
+  <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C356" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435:C441"/>
+    <sheetView tabSelected="1" topLeftCell="A478" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E510" sqref="E510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1730,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -1734,7 +1773,7 @@
         <v>1.2933149868134386</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1777,7 +1816,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1820,7 +1859,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1863,7 +1902,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -1906,7 +1945,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -1949,7 +1988,7 @@
         <v>3.4572814149194127</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -1992,7 +2031,7 @@
         <v>1.3723948139449367</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -2035,7 +2074,7 @@
         <v>1.6455026455026456</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2</v>
       </c>
@@ -2078,7 +2117,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -2121,7 +2160,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2</v>
       </c>
@@ -2164,7 +2203,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -2207,7 +2246,7 @@
         <v>2.8205269270737814</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -2250,7 +2289,7 @@
         <v>18.13963653094088</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -2293,7 +2332,7 @@
         <v>8.8765432098765427</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -2336,7 +2375,7 @@
         <v>12.206349206349207</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -2379,7 +2418,7 @@
         <v>9.9739368998628262</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2</v>
       </c>
@@ -2422,7 +2461,7 @@
         <v>10.312217194570136</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -2465,7 +2504,7 @@
         <v>8.0497737556561102</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2</v>
       </c>
@@ -2508,7 +2547,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -2551,7 +2590,7 @@
         <v>3.6296296296296298</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -2594,7 +2633,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -2637,7 +2676,7 @@
         <v>1.0576131687242798</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -2680,7 +2719,7 @@
         <v>3.8891786179921777</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -2723,7 +2762,7 @@
         <v>-0.11501016393126917</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>12</v>
       </c>
@@ -2766,7 +2805,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>12</v>
       </c>
@@ -2809,7 +2848,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>12</v>
       </c>
@@ -2852,7 +2891,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>12</v>
       </c>
@@ -2895,7 +2934,7 @@
         <v>7.019246190858059</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>12</v>
       </c>
@@ -2938,7 +2977,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>12</v>
       </c>
@@ -2981,7 +3020,7 @@
         <v>5.4143681847338039</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>12</v>
       </c>
@@ -3024,7 +3063,7 @@
         <v>16.006802721088437</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>12</v>
       </c>
@@ -3067,7 +3106,7 @@
         <v>12.888888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>3</v>
       </c>
@@ -3110,7 +3149,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>3</v>
       </c>
@@ -3153,7 +3192,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>3</v>
       </c>
@@ -3196,7 +3235,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>3</v>
       </c>
@@ -3239,7 +3278,7 @@
         <v>7.0200785024154584</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>3</v>
       </c>
@@ -3282,7 +3321,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>3</v>
       </c>
@@ -3325,7 +3364,7 @@
         <v>5.4160628019323669</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>3</v>
       </c>
@@ -3368,7 +3407,7 @@
         <v>11.448070400497587</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -3411,7 +3450,7 @@
         <v>9.6388888888888875</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>3</v>
       </c>
@@ -3454,7 +3493,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>3</v>
       </c>
@@ -3497,7 +3536,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>3</v>
       </c>
@@ -3540,7 +3579,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>3</v>
       </c>
@@ -3583,7 +3622,7 @@
         <v>7.0200785024154584</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>3</v>
       </c>
@@ -3626,7 +3665,7 @@
         <v>5.1050061050061046</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>3</v>
       </c>
@@ -3669,7 +3708,7 @@
         <v>5.4160628019323669</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>3</v>
       </c>
@@ -3712,7 +3751,7 @@
         <v>7.5036492803483092</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>3</v>
       </c>
@@ -3755,7 +3794,7 @@
         <v>7.1018518518518512</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>9</v>
       </c>
@@ -3798,7 +3837,7 @@
         <v>1.3342670401493932</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>9</v>
       </c>
@@ -3841,7 +3880,7 @@
         <v>1.5767882910740054</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>9</v>
       </c>
@@ -3884,7 +3923,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>9</v>
       </c>
@@ -3927,7 +3966,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>9</v>
       </c>
@@ -3970,7 +4009,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>9</v>
       </c>
@@ -4013,7 +4052,7 @@
         <v>4.2521008403361353</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>9</v>
       </c>
@@ -4056,7 +4095,7 @@
         <v>31.581453634085221</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>9</v>
       </c>
@@ -4099,7 +4138,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>9</v>
       </c>
@@ -4142,7 +4181,7 @@
         <v>30.126322164476562</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>9</v>
       </c>
@@ -4185,7 +4224,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>9</v>
       </c>
@@ -4228,7 +4267,7 @@
         <v>24.252525252525253</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>9</v>
       </c>
@@ -4271,7 +4310,7 @@
         <v>11.150159208982739</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>9</v>
       </c>
@@ -4314,7 +4353,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>9</v>
       </c>
@@ -4357,7 +4396,7 @@
         <v>3.6296296296296298</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>9</v>
       </c>
@@ -4400,7 +4439,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>9</v>
       </c>
@@ -4443,7 +4482,7 @@
         <v>1.0576131687242798</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>9</v>
       </c>
@@ -4486,7 +4525,7 @@
         <v>4.2513399971027086</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>9</v>
       </c>
@@ -4529,7 +4568,7 @@
         <v>-3.4556542470475682E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>1</v>
       </c>
@@ -4572,7 +4611,7 @@
         <v>1.4147590070510967</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>1</v>
       </c>
@@ -4615,7 +4654,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>1</v>
       </c>
@@ -4658,7 +4697,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>1</v>
       </c>
@@ -4701,7 +4740,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>1</v>
       </c>
@@ -4744,7 +4783,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>1</v>
       </c>
@@ -4787,7 +4826,7 @@
         <v>4.2930216802168024</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>1</v>
       </c>
@@ -4830,7 +4869,7 @@
         <v>1.3723948139449367</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>1</v>
       </c>
@@ -4873,7 +4912,7 @@
         <v>1.554278416347382</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>1</v>
       </c>
@@ -4916,7 +4955,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>1</v>
       </c>
@@ -4959,7 +4998,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>1</v>
       </c>
@@ -5002,7 +5041,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>1</v>
       </c>
@@ -5045,7 +5084,7 @@
         <v>3.5368757259001162</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>1</v>
       </c>
@@ -5088,7 +5127,7 @@
         <v>29.503826225013253</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>1</v>
       </c>
@@ -5131,7 +5170,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>1</v>
       </c>
@@ -5174,7 +5213,7 @@
         <v>20.047640095259148</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>1</v>
       </c>
@@ -5217,7 +5256,7 @@
         <v>16.489711934156379</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>1</v>
       </c>
@@ -5260,7 +5299,7 @@
         <v>34.087719298245602</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>1</v>
       </c>
@@ -5303,7 +5342,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>1</v>
       </c>
@@ -5346,7 +5385,7 @@
         <v>23.300318417965478</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>1</v>
       </c>
@@ -5389,7 +5428,7 @@
         <v>18.440254734372381</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>1</v>
       </c>
@@ -5432,7 +5471,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>1</v>
       </c>
@@ -5475,7 +5514,7 @@
         <v>4.144032921810699</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>1</v>
       </c>
@@ -5518,7 +5557,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>1</v>
       </c>
@@ -5561,7 +5600,7 @@
         <v>1.0576131687242798</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <v>1</v>
       </c>
@@ -5604,7 +5643,7 @@
         <v>12.770180436847101</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>1</v>
       </c>
@@ -5647,7 +5686,7 @@
         <v>-0.11501016393126917</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <v>12</v>
       </c>
@@ -5690,7 +5729,7 @@
         <v>1.4147590070510967</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <v>12</v>
       </c>
@@ -5733,7 +5772,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>12</v>
       </c>
@@ -5776,7 +5815,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <v>12</v>
       </c>
@@ -5819,7 +5858,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="18">
         <v>12</v>
       </c>
@@ -5862,7 +5901,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <v>12</v>
       </c>
@@ -5905,7 +5944,7 @@
         <v>4.2930216802168024</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <v>12</v>
       </c>
@@ -5948,7 +5987,7 @@
         <v>1.3723948139449367</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <v>12</v>
       </c>
@@ -5991,7 +6030,7 @@
         <v>1.554278416347382</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <v>12</v>
       </c>
@@ -6034,7 +6073,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>12</v>
       </c>
@@ -6077,7 +6116,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <v>12</v>
       </c>
@@ -6120,7 +6159,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="18">
         <v>12</v>
       </c>
@@ -6163,7 +6202,7 @@
         <v>3.5368757259001162</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <v>12</v>
       </c>
@@ -6206,7 +6245,7 @@
         <v>29.503826225013253</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="18">
         <v>12</v>
       </c>
@@ -6249,7 +6288,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="18">
         <v>12</v>
       </c>
@@ -6292,7 +6331,7 @@
         <v>20.047640095259148</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="18">
         <v>12</v>
       </c>
@@ -6335,7 +6374,7 @@
         <v>16.489711934156379</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="18">
         <v>12</v>
       </c>
@@ -6378,7 +6417,7 @@
         <v>31.581453634085221</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="18">
         <v>12</v>
       </c>
@@ -6421,7 +6460,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
         <v>12</v>
       </c>
@@ -6464,7 +6503,7 @@
         <v>24.252525252525253</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
         <v>12</v>
       </c>
@@ -6507,7 +6546,7 @@
         <v>11.150159208982739</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="18">
         <v>12</v>
       </c>
@@ -6550,7 +6589,7 @@
         <v>8.7201273671861905</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="18">
         <v>12</v>
       </c>
@@ -6593,7 +6632,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
         <v>12</v>
       </c>
@@ -6636,7 +6675,7 @@
         <v>3.6296296296296298</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
         <v>12</v>
       </c>
@@ -6679,7 +6718,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="18">
         <v>12</v>
       </c>
@@ -6722,7 +6761,7 @@
         <v>1.0576131687242798</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="18">
         <v>12</v>
       </c>
@@ -6765,7 +6804,7 @@
         <v>4.2513399971027086</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
         <v>12</v>
       </c>
@@ -6808,7 +6847,7 @@
         <v>-7.6532344971759092E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <v>0</v>
       </c>
@@ -6851,7 +6890,7 @@
         <v>1.4147590070510967</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <v>0</v>
       </c>
@@ -6894,7 +6933,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>0</v>
       </c>
@@ -6937,7 +6976,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <v>0</v>
       </c>
@@ -6980,7 +7019,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
         <v>0</v>
       </c>
@@ -7023,7 +7062,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <v>0</v>
       </c>
@@ -7066,7 +7105,7 @@
         <v>4.2930216802168024</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
         <v>0</v>
       </c>
@@ -7109,7 +7148,7 @@
         <v>1.3723948139449367</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <v>0</v>
       </c>
@@ -7152,7 +7191,7 @@
         <v>1.554278416347382</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <v>0</v>
       </c>
@@ -7195,7 +7234,7 @@
         <v>1.59000259000259</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <v>0</v>
       </c>
@@ -7238,7 +7277,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <v>0</v>
       </c>
@@ -7281,7 +7320,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <v>0</v>
       </c>
@@ -7324,7 +7363,7 @@
         <v>3.5368757259001162</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <v>0</v>
       </c>
@@ -7367,7 +7406,7 @@
         <v>29.503826225013253</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <v>0</v>
       </c>
@@ -7410,7 +7449,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <v>0</v>
       </c>
@@ -7453,7 +7492,7 @@
         <v>20.047640095259148</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="18">
         <v>0</v>
       </c>
@@ -7496,7 +7535,7 @@
         <v>16.489711934156379</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="18">
         <v>0</v>
       </c>
@@ -7539,7 +7578,7 @@
         <v>31.581453634085221</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="18">
         <v>0</v>
       </c>
@@ -7582,7 +7621,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="18">
         <v>0</v>
       </c>
@@ -7625,7 +7664,7 @@
         <v>24.252525252525253</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="18">
         <v>0</v>
       </c>
@@ -7668,7 +7707,7 @@
         <v>11.150159208982739</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="18">
         <v>0</v>
       </c>
@@ -7711,7 +7750,7 @@
         <v>8.7201273671861905</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <v>0</v>
       </c>
@@ -7754,7 +7793,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="18">
         <v>0</v>
       </c>
@@ -7797,7 +7836,7 @@
         <v>3.6296296296296298</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="18">
         <v>0</v>
       </c>
@@ -7840,7 +7879,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <v>0</v>
       </c>
@@ -7883,7 +7922,7 @@
         <v>1.0576131687242798</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="18">
         <v>0</v>
       </c>
@@ -7926,7 +7965,7 @@
         <v>4.5956901608471501</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="18">
         <v>0</v>
       </c>
@@ -8729,7 +8768,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="18">
         <v>2</v>
       </c>
@@ -8772,7 +8811,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="18">
         <v>2</v>
       </c>
@@ -8815,7 +8854,7 @@
         <v>28.708853238265007</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="18">
         <v>2</v>
       </c>
@@ -8858,7 +8897,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="18">
         <v>2</v>
       </c>
@@ -8901,7 +8940,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="18">
         <v>2</v>
       </c>
@@ -8944,7 +8983,7 @@
         <v>4.2922653541848588</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="18">
         <v>2</v>
       </c>
@@ -8987,7 +9026,7 @@
         <v>3.7361939945060163</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="18">
         <v>2</v>
       </c>
@@ -9030,7 +9069,7 @@
         <v>3.8775729197151492</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="18">
         <v>2</v>
       </c>
@@ -9073,7 +9112,7 @@
         <v>4.0276520864756158</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="18">
         <v>2</v>
       </c>
@@ -9116,7 +9155,7 @@
         <v>4.304783950617284</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="18">
         <v>2</v>
       </c>
@@ -9159,7 +9198,7 @@
         <v>28.749791654553565</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="18">
         <v>2</v>
       </c>
@@ -9202,7 +9241,7 @@
         <v>24.08169934640523</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="18">
         <v>2</v>
       </c>
@@ -9245,7 +9284,7 @@
         <v>-0.20634920634920639</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="18">
         <v>2</v>
       </c>
@@ -9288,7 +9327,7 @@
         <v>37.496649412142368</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="18">
         <v>2</v>
       </c>
@@ -9331,7 +9370,7 @@
         <v>37.46153846153846</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="18">
         <v>2</v>
       </c>
@@ -9374,7 +9413,7 @@
         <v>66.559912854030514</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="18">
         <v>2</v>
       </c>
@@ -9417,7 +9456,7 @@
         <v>63.410933865071442</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="18">
         <v>2</v>
       </c>
@@ -9460,7 +9499,7 @@
         <v>3.427083333333333</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="18">
         <v>2</v>
       </c>
@@ -9503,7 +9542,7 @@
         <v>13.790331196581196</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="18">
         <v>2</v>
       </c>
@@ -9546,7 +9585,7 @@
         <v>-7.9365079365079083E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="18">
         <v>2</v>
       </c>
@@ -9589,7 +9628,7 @@
         <v>38.351851851851855</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="18">
         <v>2</v>
       </c>
@@ -9632,7 +9671,7 @@
         <v>1.3148148148148149</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="18">
         <v>2</v>
       </c>
@@ -9675,7 +9714,7 @@
         <v>8.2592592592592595</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="18">
         <v>2</v>
       </c>
@@ -9718,7 +9757,7 @@
         <v>8.0150590150590144</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="18">
         <v>2</v>
       </c>
@@ -11137,7 +11176,7 @@
         <v>-0.20350914753814231</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="18">
         <v>4</v>
       </c>
@@ -11177,7 +11216,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="18">
         <v>4</v>
       </c>
@@ -11217,7 +11256,7 @@
         <v>31.679738562091501</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="18">
         <v>4</v>
       </c>
@@ -11257,7 +11296,7 @@
         <v>8.8039215686274517</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="18">
         <v>4</v>
       </c>
@@ -11297,7 +11336,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="18">
         <v>4</v>
       </c>
@@ -11337,7 +11376,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="18">
         <v>4</v>
       </c>
@@ -11377,7 +11416,7 @@
         <v>4.1062091503267979</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="18">
         <v>4</v>
       </c>
@@ -11417,7 +11456,7 @@
         <v>4.2709255745308878</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="18">
         <v>4</v>
       </c>
@@ -11457,7 +11496,7 @@
         <v>4.4466230936819171</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="18">
         <v>4</v>
       </c>
@@ -11497,7 +11536,7 @@
         <v>5.3657407407407405</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="18">
         <v>4</v>
       </c>
@@ -11537,7 +11576,7 @@
         <v>33.249811035525319</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="18">
         <v>4</v>
       </c>
@@ -11577,7 +11616,7 @@
         <v>24.846702317290557</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="18">
         <v>4</v>
       </c>
@@ -11617,7 +11656,7 @@
         <v>6.1078431372549016</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="18">
         <v>4</v>
       </c>
@@ -13377,7 +13416,7 @@
         <v>0.32748475410309585</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="18">
         <v>7</v>
       </c>
@@ -13420,7 +13459,7 @@
         <v>1.90056851142824</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="18">
         <v>7</v>
       </c>
@@ -13463,7 +13502,7 @@
         <v>1.6455026455026456</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="18">
         <v>7</v>
       </c>
@@ -13506,7 +13545,7 @@
         <v>1.8935185185185182</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="18">
         <v>7</v>
       </c>
@@ -13549,7 +13588,7 @@
         <v>1.4801587301587302</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="18">
         <v>7</v>
       </c>
@@ -13592,7 +13631,7 @@
         <v>1.7412280701754383</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="18">
         <v>7</v>
       </c>
@@ -13635,7 +13674,7 @@
         <v>4.374957000343997</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="18">
         <v>7</v>
       </c>
@@ -13678,7 +13717,7 @@
         <v>1.6461326770924294</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="18">
         <v>7</v>
       </c>
@@ -13721,7 +13760,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="18">
         <v>7</v>
       </c>
@@ -13764,7 +13803,7 @@
         <v>1.4366471734892792</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="18">
         <v>7</v>
       </c>
@@ -13807,7 +13846,7 @@
         <v>0.98412698412698418</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <v>7</v>
       </c>
@@ -13850,7 +13889,7 @@
         <v>1.3148148148148149</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <v>7</v>
       </c>
@@ -13893,7 +13932,7 @@
         <v>3.6071060002948547</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="18">
         <v>7</v>
       </c>
@@ -13936,7 +13975,7 @@
         <v>33.414538762364849</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <v>7</v>
       </c>
@@ -13979,7 +14018,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="18">
         <v>7</v>
       </c>
@@ -14022,7 +14061,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="18">
         <v>7</v>
       </c>
@@ -14065,7 +14104,7 @@
         <v>22.746031746031747</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <v>7</v>
       </c>
@@ -14108,7 +14147,7 @@
         <v>16.489711934156379</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="18">
         <v>7</v>
       </c>
@@ -14151,7 +14190,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <v>7</v>
       </c>
@@ -14194,7 +14233,7 @@
         <v>35.758563074352537</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <v>7</v>
       </c>
@@ -14237,7 +14276,7 @@
         <v>17.888888888888886</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <v>7</v>
       </c>
@@ -14280,7 +14319,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="18">
         <v>7</v>
       </c>
@@ -14323,7 +14362,7 @@
         <v>11.932449494949497</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <v>7</v>
       </c>
@@ -14366,7 +14405,7 @@
         <v>11.932449494949497</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <v>7</v>
       </c>
@@ -14409,7 +14448,7 @@
         <v>34.650623885918002</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="18">
         <v>7</v>
       </c>
@@ -14452,7 +14491,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="18">
         <v>7</v>
       </c>
@@ -14495,7 +14534,7 @@
         <v>12.130252100840337</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="18">
         <v>7</v>
       </c>
@@ -14538,7 +14577,7 @@
         <v>-0.33862433862433861</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="18">
         <v>7</v>
       </c>
@@ -14581,7 +14620,7 @@
         <v>7.2304526748971192</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="18">
         <v>7</v>
       </c>
@@ -14624,7 +14663,7 @@
         <v>0.23456790123456783</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="18">
         <v>7</v>
       </c>
@@ -14667,7 +14706,7 @@
         <v>3.1152263374485596</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="18">
         <v>7</v>
       </c>
@@ -14710,7 +14749,7 @@
         <v>11.569130216189039</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="18">
         <v>7</v>
       </c>
@@ -14753,7 +14792,7 @@
         <v>6.1225071225071224</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="18">
         <v>7</v>
       </c>
@@ -14796,7 +14835,7 @@
         <v>-0.20350914753814231</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="18">
         <v>2</v>
       </c>
@@ -14836,7 +14875,7 @@
         <v>23.509803921568629</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="18">
         <v>2</v>
       </c>
@@ -14876,7 +14915,7 @@
         <v>13.705882352941176</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="18">
         <v>2</v>
       </c>
@@ -14916,7 +14955,7 @@
         <v>4.8479532163742691</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="18">
         <v>2</v>
       </c>
@@ -14956,7 +14995,7 @@
         <v>6.4074074074074074</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="18">
         <v>2</v>
       </c>
@@ -14996,7 +15035,7 @@
         <v>7.7145969498910674</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="18">
         <v>2</v>
       </c>
@@ -15036,7 +15075,7 @@
         <v>24.088405268063337</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="18">
         <v>2</v>
       </c>
@@ -15076,7 +15115,7 @@
         <v>6.7294685990338161</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="18">
         <v>2</v>
       </c>
@@ -15116,7 +15155,7 @@
         <v>6.7294685990338161</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="18">
         <v>2</v>
       </c>
@@ -15156,7 +15195,7 @@
         <v>4.2287581699346406</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="18">
         <v>2</v>
       </c>
@@ -15196,7 +15235,7 @@
         <v>3.6685340802987874</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="18">
         <v>2</v>
       </c>
@@ -15236,7 +15275,7 @@
         <v>3.5351473922902494</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="18">
         <v>2</v>
       </c>
@@ -15276,7 +15315,7 @@
         <v>2.9401103230890464</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="18">
         <v>2</v>
       </c>
@@ -15316,7 +15355,7 @@
         <v>4.208333333333333</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="18">
         <v>2</v>
       </c>
@@ -15356,7 +15395,7 @@
         <v>23.963689179375457</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="18">
         <v>2</v>
       </c>
@@ -15396,7 +15435,7 @@
         <v>3.6296296296296298</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="18">
         <v>2</v>
       </c>
@@ -15436,7 +15475,7 @@
         <v>10.640211640211641</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="18">
         <v>2</v>
       </c>
@@ -15476,7 +15515,7 @@
         <v>18.970951343500364</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="18">
         <v>2</v>
       </c>
@@ -15516,7 +15555,7 @@
         <v>-0.41643323996265169</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="18">
         <v>2</v>
       </c>
@@ -15556,7 +15595,7 @@
         <v>0.81554103122730592</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="18">
         <v>2</v>
       </c>
@@ -15596,7 +15635,7 @@
         <v>8.9324618736383421E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <v>2</v>
       </c>
@@ -15636,7 +15675,7 @@
         <v>0.81554103122730592</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="18">
         <v>2</v>
       </c>
@@ -15676,7 +15715,7 @@
         <v>4.2231718898385573</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <v>2</v>
       </c>
@@ -16877,7 +16916,7 @@
         <v>-0.33625762294845207</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="18">
         <v>9</v>
       </c>
@@ -16917,7 +16956,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="18">
         <v>9</v>
       </c>
@@ -16957,7 +16996,7 @@
         <v>22.20454809142592</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="18">
         <v>9</v>
       </c>
@@ -16997,7 +17036,7 @@
         <v>4.242738806752647</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="18">
         <v>9</v>
       </c>
@@ -17037,7 +17076,7 @@
         <v>4.4847113670643086</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="18">
         <v>9</v>
       </c>
@@ -17077,7 +17116,7 @@
         <v>4.7870370370370363</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="18">
         <v>9</v>
       </c>
@@ -17117,7 +17156,7 @@
         <v>37.938134176229404</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="18">
         <v>9</v>
       </c>
@@ -17157,7 +17196,7 @@
         <v>29.303030303030305</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="18">
         <v>9</v>
       </c>
@@ -17197,7 +17236,7 @@
         <v>7.3333333333333339</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="18">
         <v>9</v>
       </c>
@@ -17237,7 +17276,7 @@
         <v>47.326835607537362</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="18">
         <v>9</v>
       </c>
@@ -17277,7 +17316,7 @@
         <v>-6.629318394024275E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="18">
         <v>9</v>
       </c>
@@ -17317,7 +17356,7 @@
         <v>-0.41643323996265169</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="18">
         <v>9</v>
       </c>
@@ -17357,7 +17396,7 @@
         <v>5.8082788671023966</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="18">
         <v>9</v>
       </c>
@@ -17397,7 +17436,7 @@
         <v>0.36165577342047928</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="18">
         <v>9</v>
       </c>
@@ -17437,7 +17476,7 @@
         <v>1.7233115468409586</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="18">
         <v>9</v>
       </c>
@@ -17477,7 +17516,7 @@
         <v>5.0541310541310551</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="18">
         <v>9</v>
       </c>
@@ -17517,7 +17556,7 @@
         <v>-0.33625762294845207</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="18">
         <v>16</v>
       </c>
@@ -17560,7 +17599,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="18">
         <v>16</v>
       </c>
@@ -17603,7 +17642,7 @@
         <v>28.708853238265007</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="18">
         <v>16</v>
       </c>
@@ -17646,7 +17685,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="18">
         <v>16</v>
       </c>
@@ -17689,7 +17728,7 @@
         <v>15.33986928104575</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="18">
         <v>16</v>
       </c>
@@ -17732,7 +17771,7 @@
         <v>4.2922653541848588</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="18">
         <v>16</v>
       </c>
@@ -17775,7 +17814,7 @@
         <v>3.7361939945060163</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="18">
         <v>16</v>
       </c>
@@ -17818,7 +17857,7 @@
         <v>3.8775729197151492</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="18">
         <v>16</v>
       </c>
@@ -17861,7 +17900,7 @@
         <v>4.0276520864756158</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="18">
         <v>16</v>
       </c>
@@ -17904,7 +17943,7 @@
         <v>4.304783950617284</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="18">
         <v>16</v>
       </c>
@@ -17947,7 +17986,7 @@
         <v>28.749791654553565</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="18">
         <v>16</v>
       </c>
@@ -17990,7 +18029,7 @@
         <v>24.08169934640523</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="18">
         <v>16</v>
       </c>
@@ -18033,7 +18072,7 @@
         <v>34.158844682654205</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="18">
         <v>16</v>
       </c>
@@ -18076,7 +18115,7 @@
         <v>24.08169934640523</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="18">
         <v>16</v>
       </c>
@@ -18119,7 +18158,7 @@
         <v>5.8404634581105173</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="18">
         <v>16</v>
       </c>
@@ -18162,7 +18201,7 @@
         <v>45.203130374956991</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="18">
         <v>16</v>
       </c>
@@ -18205,7 +18244,7 @@
         <v>-6.629318394024275E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="18">
         <v>16</v>
       </c>
@@ -18248,7 +18287,7 @@
         <v>-0.41643323996265169</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="18">
         <v>16</v>
       </c>
@@ -18291,7 +18330,7 @@
         <v>18.063180827886711</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="18">
         <v>16</v>
       </c>
@@ -18334,7 +18373,7 @@
         <v>0.36165577342047928</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="18">
         <v>16</v>
       </c>
@@ -18377,7 +18416,7 @@
         <v>4.4466230936819171</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="18">
         <v>16</v>
       </c>
@@ -18420,7 +18459,7 @@
         <v>4.3418803418803424</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="18">
         <v>16</v>
       </c>
@@ -18463,7 +18502,7 @@
         <v>-0.30589032465197596</v>
       </c>
     </row>
-    <row r="400" spans="1:13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="18">
         <v>0</v>
       </c>
@@ -18504,7 +18543,7 @@
         <v>13.652014652014651</v>
       </c>
     </row>
-    <row r="401" spans="1:13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="18">
         <v>0</v>
       </c>
@@ -18545,7 +18584,7 @@
         <v>-0.23687423687423692</v>
       </c>
     </row>
-    <row r="402" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="18">
         <v>0</v>
       </c>
@@ -18586,7 +18625,7 @@
         <v>48.857549857549856</v>
       </c>
     </row>
-    <row r="403" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="18">
         <v>0</v>
       </c>
@@ -18627,7 +18666,7 @@
         <v>0.42450142450142447</v>
       </c>
     </row>
-    <row r="404" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="18">
         <v>0</v>
       </c>
@@ -18668,7 +18707,7 @@
         <v>6.1225071225071224</v>
       </c>
     </row>
-    <row r="405" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="18">
         <v>0</v>
       </c>
@@ -18709,7 +18748,7 @@
         <v>2.2051282051282053</v>
       </c>
     </row>
-    <row r="406" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="18">
         <v>0</v>
       </c>
@@ -18750,7 +18789,7 @@
         <v>-0.20350914753814231</v>
       </c>
     </row>
-    <row r="407" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="18">
         <v>6</v>
       </c>
@@ -18793,7 +18832,7 @@
         <v>1.6005096999011803</v>
       </c>
     </row>
-    <row r="408" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="18">
         <v>6</v>
       </c>
@@ -18836,7 +18875,7 @@
         <v>2.0525030525030523</v>
       </c>
     </row>
-    <row r="409" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="18">
         <v>6</v>
       </c>
@@ -18879,7 +18918,7 @@
         <v>2.7411148522259632</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="18">
         <v>6</v>
       </c>
@@ -18922,7 +18961,7 @@
         <v>2.7411148522259632</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="18">
         <v>6</v>
       </c>
@@ -18965,7 +19004,7 @@
         <v>2.2488628979857048</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="18">
         <v>6</v>
       </c>
@@ -19008,7 +19047,7 @@
         <v>4.514705882352942</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="18">
         <v>6</v>
       </c>
@@ -19051,7 +19090,7 @@
         <v>2.0165912518853695</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="18">
         <v>6</v>
       </c>
@@ -19094,7 +19133,7 @@
         <v>1.8490028490028489</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="18">
         <v>6</v>
       </c>
@@ -19137,7 +19176,7 @@
         <v>1.9708853238265003</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="18">
         <v>6</v>
       </c>
@@ -19180,7 +19219,7 @@
         <v>1.5252525252525251</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="18">
         <v>6</v>
       </c>
@@ -19223,7 +19262,7 @@
         <v>2.2488628979857048</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="18">
         <v>6</v>
       </c>
@@ -19266,7 +19305,7 @@
         <v>3.7268907563025211</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="18">
         <v>6</v>
       </c>
@@ -19309,7 +19348,7 @@
         <v>34.680212226615936</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="18">
         <v>6</v>
       </c>
@@ -19352,7 +19391,7 @@
         <v>16.777777777777779</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="18">
         <v>6</v>
       </c>
@@ -19395,7 +19434,7 @@
         <v>1.678380115706021</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="18">
         <v>6</v>
       </c>
@@ -19438,7 +19477,7 @@
         <v>23.619346436364996</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="18">
         <v>6</v>
       </c>
@@ -19481,7 +19520,7 @@
         <v>15.460905349794238</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="18">
         <v>6</v>
       </c>
@@ -19524,7 +19563,7 @@
         <v>1.678380115706021</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="18">
         <v>6</v>
       </c>
@@ -19567,7 +19606,7 @@
         <v>36.348272642390292</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="18">
         <v>6</v>
       </c>
@@ -19610,7 +19649,7 @@
         <v>16.777777777777779</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="18">
         <v>6</v>
       </c>
@@ -19653,7 +19692,7 @@
         <v>1.678380115706021</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="18">
         <v>6</v>
       </c>
@@ -19696,7 +19735,7 @@
         <v>37.12748305233378</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="18">
         <v>6</v>
       </c>
@@ -19739,7 +19778,7 @@
         <v>-0.4778613199665831</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="18">
         <v>6</v>
       </c>
@@ -19782,7 +19821,7 @@
         <v>2.6549707602339176</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="18">
         <v>6</v>
       </c>
@@ -19825,7 +19864,7 @@
         <v>-2.5341130604288553E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="18">
         <v>6</v>
       </c>
@@ -19868,7 +19907,7 @@
         <v>5.4977257959714096</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="18">
         <v>6</v>
       </c>
@@ -19911,7 +19950,7 @@
         <v>4.7945820657685072</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="18">
         <v>6</v>
       </c>
@@ -20234,7 +20273,7 @@
         <v>-0.33625762294845207</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="18">
         <v>4</v>
       </c>
@@ -20277,7 +20316,7 @@
         <v>0.98862506463031496</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="18">
         <v>4</v>
       </c>
@@ -20320,7 +20359,7 @@
         <v>1.6455026455026456</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="18">
         <v>4</v>
       </c>
@@ -20363,7 +20402,7 @@
         <v>1.8490028490028489</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="18">
         <v>4</v>
       </c>
@@ -20406,7 +20445,7 @@
         <v>1.6455026455026456</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="18">
         <v>4</v>
       </c>
@@ -20449,7 +20488,7 @@
         <v>1.9239766081871346</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="18">
         <v>4</v>
       </c>
@@ -20492,7 +20531,7 @@
         <v>4.106209150326797</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="18">
         <v>4</v>
       </c>
@@ -20535,7 +20574,7 @@
         <v>1.0596473883671118</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="18">
         <v>4</v>
       </c>
@@ -20578,7 +20617,7 @@
         <v>1.405002405002405</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="18">
         <v>4</v>
       </c>
@@ -20621,7 +20660,7 @@
         <v>1.3741690408357079</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="18">
         <v>4</v>
       </c>
@@ -20650,7 +20689,7 @@
         <v>441</v>
       </c>
       <c r="J451" s="22">
-        <f t="shared" ref="J451:J466" si="7">1000/I451</f>
+        <f t="shared" ref="J451:J499" si="7">1000/I451</f>
         <v>2.2675736961451247</v>
       </c>
       <c r="K451" s="18" t="s">
@@ -20664,7 +20703,7 @@
         <v>1.2675736961451247</v>
       </c>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="18">
         <v>4</v>
       </c>
@@ -20707,7 +20746,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="18">
         <v>4</v>
       </c>
@@ -20750,7 +20789,7 @@
         <v>3.3767507002801125</v>
       </c>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="18">
         <v>4</v>
       </c>
@@ -20793,7 +20832,7 @@
         <v>25.947977258536259</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="18">
         <v>4</v>
       </c>
@@ -20836,7 +20875,7 @@
         <v>15.666666666666668</v>
       </c>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="18">
         <v>4</v>
       </c>
@@ -20879,7 +20918,7 @@
         <v>17.594104308390023</v>
       </c>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="18">
         <v>4</v>
       </c>
@@ -20922,7 +20961,7 @@
         <v>14.4320987654321</v>
       </c>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="18">
         <v>4</v>
       </c>
@@ -20965,7 +21004,7 @@
         <v>29.222615361934249</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="18">
         <v>4</v>
       </c>
@@ -21008,7 +21047,7 @@
         <v>15.666666666666668</v>
       </c>
     </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="18">
         <v>4</v>
       </c>
@@ -21051,7 +21090,7 @@
         <v>21.281639928698752</v>
       </c>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="18">
         <v>4</v>
       </c>
@@ -21094,7 +21133,7 @@
         <v>-0.4778613199665831</v>
       </c>
     </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="18">
         <v>4</v>
       </c>
@@ -21137,7 +21176,7 @@
         <v>4.4824561403508767</v>
       </c>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="18">
         <v>4</v>
       </c>
@@ -21180,7 +21219,7 @@
         <v>-2.5341130604288553E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="18">
         <v>4</v>
       </c>
@@ -21223,7 +21262,7 @@
         <v>1.4366471734892787</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="18">
         <v>4</v>
       </c>
@@ -21266,7 +21305,7 @@
         <v>4.4324206866579745</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="18">
         <v>4</v>
       </c>
@@ -21309,15 +21348,1328 @@
         <v>-0.33625762294845207</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G467" s="51"/>
+    <row r="467" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="18">
+        <v>8</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C467" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D467" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E467" s="57">
+        <v>1</v>
+      </c>
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H467" s="60">
+        <v>85</v>
+      </c>
+      <c r="I467" s="62">
+        <v>344.76</v>
+      </c>
+      <c r="J467" s="22">
+        <f t="shared" si="7"/>
+        <v>2.90056851142824</v>
+      </c>
+      <c r="K467" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L467" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M467" s="18"/>
+    </row>
+    <row r="468" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="18">
+        <v>8</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C468" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D468" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E468" s="57">
+        <v>1</v>
+      </c>
+      <c r="F468" s="58">
+        <v>2</v>
+      </c>
+      <c r="G468" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H468" s="60">
+        <v>75</v>
+      </c>
+      <c r="I468" s="62">
+        <v>378</v>
+      </c>
+      <c r="J468" s="22">
+        <f t="shared" si="7"/>
+        <v>2.6455026455026456</v>
+      </c>
+      <c r="K468" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L468" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M468" s="18"/>
+    </row>
+    <row r="469" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="18">
+        <v>8</v>
+      </c>
+      <c r="B469" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C469" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D469" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E469" s="57">
+        <v>1</v>
+      </c>
+      <c r="F469" s="58">
+        <v>3</v>
+      </c>
+      <c r="G469" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H469" s="60">
+        <v>75</v>
+      </c>
+      <c r="I469" s="62">
+        <v>345.6</v>
+      </c>
+      <c r="J469" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8935185185185182</v>
+      </c>
+      <c r="K469" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L469" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M469" s="18"/>
+    </row>
+    <row r="470" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="18">
+        <v>8</v>
+      </c>
+      <c r="B470" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C470" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D470" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E470" s="57">
+        <v>2</v>
+      </c>
+      <c r="F470" s="58">
+        <v>4</v>
+      </c>
+      <c r="G470" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="H470" s="60">
+        <v>75</v>
+      </c>
+      <c r="I470" s="62">
+        <v>403.2</v>
+      </c>
+      <c r="J470" s="22">
+        <f t="shared" si="7"/>
+        <v>2.4801587301587302</v>
+      </c>
+      <c r="K470" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L470" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M470" s="18"/>
+    </row>
+    <row r="471" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="18">
+        <v>8</v>
+      </c>
+      <c r="B471" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C471" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D471" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E471" s="57">
+        <v>2</v>
+      </c>
+      <c r="F471" s="58">
+        <v>5</v>
+      </c>
+      <c r="G471" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H471" s="60">
+        <v>80</v>
+      </c>
+      <c r="I471" s="62">
+        <v>364.8</v>
+      </c>
+      <c r="J471" s="22">
+        <f t="shared" si="7"/>
+        <v>2.7412280701754383</v>
+      </c>
+      <c r="K471" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L471" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M471" s="18"/>
+    </row>
+    <row r="472" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="18">
+        <v>8</v>
+      </c>
+      <c r="B472" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C472" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D472" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E472" s="57">
+        <v>24</v>
+      </c>
+      <c r="F472" s="58">
+        <v>6</v>
+      </c>
+      <c r="G472" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H472" s="60">
+        <v>85</v>
+      </c>
+      <c r="I472" s="62">
+        <v>186.048</v>
+      </c>
+      <c r="J472" s="22">
+        <f t="shared" si="7"/>
+        <v>5.374957000343997</v>
+      </c>
+      <c r="K472" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L472" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M472" s="18"/>
+    </row>
+    <row r="473" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="18">
+        <v>8</v>
+      </c>
+      <c r="B473" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C473" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D473" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E473" s="57">
+        <v>1</v>
+      </c>
+      <c r="F473" s="58">
+        <v>7</v>
+      </c>
+      <c r="G473" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H473" s="60">
+        <v>85</v>
+      </c>
+      <c r="I473" s="62">
+        <v>377.91</v>
+      </c>
+      <c r="J473" s="22">
+        <f t="shared" si="7"/>
+        <v>2.6461326770924294</v>
+      </c>
+      <c r="K473" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L473" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M473" s="18"/>
+    </row>
+    <row r="474" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="18">
+        <v>8</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C474" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D474" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E474" s="57">
+        <v>1</v>
+      </c>
+      <c r="F474" s="58">
+        <v>8</v>
+      </c>
+      <c r="G474" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H474" s="60">
+        <v>75</v>
+      </c>
+      <c r="I474" s="62">
+        <v>415.8</v>
+      </c>
+      <c r="J474" s="22">
+        <f t="shared" si="7"/>
+        <v>2.405002405002405</v>
+      </c>
+      <c r="K474" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L474" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M474" s="18"/>
+    </row>
+    <row r="475" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="18">
+        <v>8</v>
+      </c>
+      <c r="B475" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D475" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E475" s="57">
+        <v>1</v>
+      </c>
+      <c r="F475" s="58">
+        <v>9</v>
+      </c>
+      <c r="G475" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H475" s="60">
+        <v>75</v>
+      </c>
+      <c r="I475" s="62">
+        <v>410.39999999999992</v>
+      </c>
+      <c r="J475" s="22">
+        <f t="shared" si="7"/>
+        <v>2.4366471734892792</v>
+      </c>
+      <c r="K475" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L475" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M475" s="18"/>
+    </row>
+    <row r="476" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="18">
+        <v>8</v>
+      </c>
+      <c r="B476" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C476" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D476" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E476" s="57">
+        <v>2</v>
+      </c>
+      <c r="F476" s="58">
+        <v>10</v>
+      </c>
+      <c r="G476" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H476" s="60">
+        <v>75</v>
+      </c>
+      <c r="I476" s="62">
+        <v>504</v>
+      </c>
+      <c r="J476" s="22">
+        <f t="shared" si="7"/>
+        <v>1.9841269841269842</v>
+      </c>
+      <c r="K476" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L476" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M476" s="18"/>
+    </row>
+    <row r="477" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="18">
+        <v>8</v>
+      </c>
+      <c r="B477" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C477" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D477" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E477" s="57">
+        <v>2</v>
+      </c>
+      <c r="F477" s="58">
+        <v>11</v>
+      </c>
+      <c r="G477" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H477" s="60">
+        <v>80</v>
+      </c>
+      <c r="I477" s="62">
+        <v>432</v>
+      </c>
+      <c r="J477" s="22">
+        <f t="shared" si="7"/>
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="K477" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L477" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M477" s="18"/>
+    </row>
+    <row r="478" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="18">
+        <v>8</v>
+      </c>
+      <c r="B478" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C478" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D478" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E478" s="57">
+        <v>28</v>
+      </c>
+      <c r="F478" s="58">
+        <v>12</v>
+      </c>
+      <c r="G478" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H478" s="60">
+        <v>85</v>
+      </c>
+      <c r="I478" s="62">
+        <v>217.05600000000001</v>
+      </c>
+      <c r="J478" s="22">
+        <f t="shared" si="7"/>
+        <v>4.6071060002948547</v>
+      </c>
+      <c r="K478" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L478" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M478" s="18"/>
+    </row>
+    <row r="479" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="18">
+        <v>8</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C479" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D479" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E479" s="57">
+        <v>828</v>
+      </c>
+      <c r="F479" s="58">
+        <v>13</v>
+      </c>
+      <c r="G479" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H479" s="61">
+        <v>87.5</v>
+      </c>
+      <c r="I479" s="62">
+        <v>29.057486631016044</v>
+      </c>
+      <c r="J479" s="22">
+        <f t="shared" si="7"/>
+        <v>34.414538762364849</v>
+      </c>
+      <c r="K479" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L479" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M479" s="18"/>
+    </row>
+    <row r="480" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="18">
+        <v>8</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C480" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D480" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E480" s="57">
+        <v>40</v>
+      </c>
+      <c r="F480" s="58">
+        <v>14</v>
+      </c>
+      <c r="G480" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H480" s="60">
+        <v>75</v>
+      </c>
+      <c r="I480" s="62">
+        <v>52.941176470588246</v>
+      </c>
+      <c r="J480" s="22">
+        <f t="shared" si="7"/>
+        <v>18.888888888888886</v>
+      </c>
+      <c r="K480" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L480" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M480" s="18"/>
+    </row>
+    <row r="481" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="18">
+        <v>8</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C481" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D481" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E481" s="57">
+        <v>1</v>
+      </c>
+      <c r="F481" s="58">
+        <v>15</v>
+      </c>
+      <c r="G481" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H481" s="60">
+        <v>80</v>
+      </c>
+      <c r="I481" s="62">
+        <v>320</v>
+      </c>
+      <c r="J481" s="22">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="K481" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L481" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M481" s="18"/>
+    </row>
+    <row r="482" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="18">
+        <v>8</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C482" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D482" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E482" s="57">
+        <v>1200</v>
+      </c>
+      <c r="F482" s="58">
+        <v>16</v>
+      </c>
+      <c r="G482" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H482" s="61">
+        <v>87.5</v>
+      </c>
+      <c r="I482" s="62">
+        <v>42.112299465240639</v>
+      </c>
+      <c r="J482" s="22">
+        <f t="shared" si="7"/>
+        <v>23.746031746031747</v>
+      </c>
+      <c r="K482" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L482" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M482" s="18"/>
+    </row>
+    <row r="483" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="18">
+        <v>8</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C483" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D483" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E483" s="57">
+        <v>36</v>
+      </c>
+      <c r="F483" s="58">
+        <v>17</v>
+      </c>
+      <c r="G483" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H483" s="60">
+        <v>75</v>
+      </c>
+      <c r="I483" s="62">
+        <v>57.176470588235297</v>
+      </c>
+      <c r="J483" s="22">
+        <f t="shared" si="7"/>
+        <v>17.489711934156379</v>
+      </c>
+      <c r="K483" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L483" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M483" s="18"/>
+    </row>
+    <row r="484" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="18">
+        <v>8</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C484" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D484" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E484" s="57">
+        <v>1</v>
+      </c>
+      <c r="F484" s="58">
+        <v>18</v>
+      </c>
+      <c r="G484" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H484" s="60">
+        <v>80</v>
+      </c>
+      <c r="I484" s="62">
+        <v>320</v>
+      </c>
+      <c r="J484" s="22">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="K484" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L484" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M484" s="18"/>
+    </row>
+    <row r="485" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="18">
+        <v>8</v>
+      </c>
+      <c r="B485" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C485" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D485" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E485" s="57">
+        <v>816</v>
+      </c>
+      <c r="F485" s="58">
+        <v>19</v>
+      </c>
+      <c r="G485" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H485" s="61">
+        <v>87.5</v>
+      </c>
+      <c r="I485" s="62">
+        <v>27.20454545454546</v>
+      </c>
+      <c r="J485" s="22">
+        <f t="shared" si="7"/>
+        <v>36.758563074352537</v>
+      </c>
+      <c r="K485" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L485" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M485" s="18"/>
+    </row>
+    <row r="486" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="18">
+        <v>8</v>
+      </c>
+      <c r="B486" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C486" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D486" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E486" s="57">
+        <v>40</v>
+      </c>
+      <c r="F486" s="58">
+        <v>20</v>
+      </c>
+      <c r="G486" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H486" s="60">
+        <v>75</v>
+      </c>
+      <c r="I486" s="62">
+        <v>52.941176470588246</v>
+      </c>
+      <c r="J486" s="22">
+        <f t="shared" si="7"/>
+        <v>18.888888888888886</v>
+      </c>
+      <c r="K486" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L486" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M486" s="18"/>
+    </row>
+    <row r="487" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="18">
+        <v>8</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C487" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D487" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E487" s="57">
+        <v>1</v>
+      </c>
+      <c r="F487" s="58">
+        <v>21</v>
+      </c>
+      <c r="G487" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H487" s="60">
+        <v>80</v>
+      </c>
+      <c r="I487" s="62">
+        <v>320</v>
+      </c>
+      <c r="J487" s="22">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="K487" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L487" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M487" s="18"/>
+    </row>
+    <row r="488" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="18">
+        <v>8</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C488" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D488" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E488" s="57">
+        <v>40</v>
+      </c>
+      <c r="F488" s="58">
+        <v>22</v>
+      </c>
+      <c r="G488" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H488" s="60">
+        <v>80</v>
+      </c>
+      <c r="I488" s="62">
+        <v>77.324871857456671</v>
+      </c>
+      <c r="J488" s="22">
+        <f t="shared" si="7"/>
+        <v>12.932449494949497</v>
+      </c>
+      <c r="K488" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L488" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M488" s="18"/>
+    </row>
+    <row r="489" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="18">
+        <v>8</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C489" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D489" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E489" s="57">
+        <v>1</v>
+      </c>
+      <c r="F489" s="58">
+        <v>23</v>
+      </c>
+      <c r="G489" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H489" s="60">
+        <v>80</v>
+      </c>
+      <c r="I489" s="62">
+        <v>77.3</v>
+      </c>
+      <c r="J489" s="22">
+        <f t="shared" si="7"/>
+        <v>12.936610608020699</v>
+      </c>
+      <c r="K489" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L489" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M489" s="18"/>
+    </row>
+    <row r="490" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="18">
+        <v>8</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C490" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D490" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E490" s="57">
+        <v>240</v>
+      </c>
+      <c r="F490" s="58">
+        <v>24</v>
+      </c>
+      <c r="G490" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H490" s="60">
+        <v>85</v>
+      </c>
+      <c r="I490" s="62">
+        <v>28.05</v>
+      </c>
+      <c r="J490" s="22">
+        <f t="shared" si="7"/>
+        <v>35.650623885918002</v>
+      </c>
+      <c r="K490" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L490" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M490" s="18"/>
+    </row>
+    <row r="491" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="18">
+        <v>8</v>
+      </c>
+      <c r="B491" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C491" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D491" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E491" s="57">
+        <v>1</v>
+      </c>
+      <c r="F491" s="58">
+        <v>25</v>
+      </c>
+      <c r="G491" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H491" s="60">
+        <v>80</v>
+      </c>
+      <c r="I491" s="62">
+        <v>320</v>
+      </c>
+      <c r="J491" s="22">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="K491" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L491" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M491" s="18"/>
+    </row>
+    <row r="492" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="18">
+        <v>8</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C492" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D492" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E492" s="57">
+        <v>32</v>
+      </c>
+      <c r="F492" s="58">
+        <v>26</v>
+      </c>
+      <c r="G492" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H492" s="60">
+        <v>85</v>
+      </c>
+      <c r="I492" s="62">
+        <v>76.16</v>
+      </c>
+      <c r="J492" s="22">
+        <f t="shared" si="7"/>
+        <v>13.130252100840337</v>
+      </c>
+      <c r="K492" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L492" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M492" s="18"/>
+    </row>
+    <row r="493" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="18">
+        <v>8</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C493" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D493" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E493" s="57">
+        <v>1</v>
+      </c>
+      <c r="F493" s="58">
+        <v>27</v>
+      </c>
+      <c r="G493" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H493" s="57">
+        <v>70</v>
+      </c>
+      <c r="I493" s="62">
+        <v>1814.4</v>
+      </c>
+      <c r="J493" s="22">
+        <f t="shared" si="7"/>
+        <v>0.55114638447971775</v>
+      </c>
+      <c r="K493" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L493" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M493" s="18"/>
+    </row>
+    <row r="494" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="18">
+        <v>8</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C494" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D494" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E494" s="57">
+        <v>1</v>
+      </c>
+      <c r="F494" s="58">
+        <v>28</v>
+      </c>
+      <c r="G494" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H494" s="57">
+        <v>90</v>
+      </c>
+      <c r="I494" s="62">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="J494" s="22">
+        <f t="shared" si="7"/>
+        <v>6.8587105624142657</v>
+      </c>
+      <c r="K494" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L494" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M494" s="18"/>
+    </row>
+    <row r="495" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="18">
+        <v>8</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C495" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D495" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E495" s="57">
+        <v>1</v>
+      </c>
+      <c r="F495" s="58">
+        <v>29</v>
+      </c>
+      <c r="G495" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H495" s="57">
+        <v>90</v>
+      </c>
+      <c r="I495" s="62">
+        <v>972</v>
+      </c>
+      <c r="J495" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0288065843621399</v>
+      </c>
+      <c r="K495" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L495" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M495" s="18"/>
+    </row>
+    <row r="496" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="18">
+        <v>8</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C496" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D496" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E496" s="57">
+        <v>1</v>
+      </c>
+      <c r="F496" s="58">
+        <v>30</v>
+      </c>
+      <c r="G496" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H496" s="57">
+        <v>90</v>
+      </c>
+      <c r="I496" s="62">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="J496" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4293552812071328</v>
+      </c>
+      <c r="K496" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L496" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M496" s="18"/>
+    </row>
+    <row r="497" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="18">
+        <v>8</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C497" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D497" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E497" s="57">
+        <v>36</v>
+      </c>
+      <c r="F497" s="58">
+        <v>31</v>
+      </c>
+      <c r="G497" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H497" s="57">
+        <v>85</v>
+      </c>
+      <c r="I497" s="62">
+        <v>79.56</v>
+      </c>
+      <c r="J497" s="22">
+        <f t="shared" si="7"/>
+        <v>12.569130216189039</v>
+      </c>
+      <c r="K497" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L497" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M497" s="18"/>
+    </row>
+    <row r="498" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="18">
+        <v>8</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C498" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D498" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E498" s="57">
+        <v>60</v>
+      </c>
+      <c r="F498" s="58">
+        <v>32</v>
+      </c>
+      <c r="G498" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H498" s="60">
+        <v>65</v>
+      </c>
+      <c r="I498" s="62">
+        <v>140.4</v>
+      </c>
+      <c r="J498" s="22">
+        <f t="shared" si="7"/>
+        <v>7.1225071225071224</v>
+      </c>
+      <c r="K498" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L498" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M498" s="18"/>
+    </row>
+    <row r="499" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="18">
+        <v>8</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C499" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D499" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E499" s="57">
+        <v>1</v>
+      </c>
+      <c r="F499" s="58">
+        <v>33</v>
+      </c>
+      <c r="G499" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H499" s="57">
+        <v>85.2</v>
+      </c>
+      <c r="I499" s="63">
+        <v>1255.5072</v>
+      </c>
+      <c r="J499" s="22">
+        <f t="shared" si="7"/>
+        <v>0.79649085246185769</v>
+      </c>
+      <c r="K499" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L499" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M499" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M466" xr:uid="{56851730-25A0-448D-A189-DA13E238D33F}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M499" xr:uid="{56851730-25A0-448D-A189-DA13E238D33F}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
